--- a/DataSets/cbr_str.xlsx
+++ b/DataSets/cbr_str.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>NAIM</t>
   </si>
@@ -388,10 +388,448 @@
     <t>689202, ЭГВЕКИНОТ, УЛ ЛЕНИНА, 9 А</t>
   </si>
   <si>
-    <t>ОТДЕЛЕНИЕ-НБ РЕСПУБЛИКА БАШКОРТОСТАН</t>
-  </si>
-  <si>
-    <t>УФА ТЕАТРАЛЬНАЯ 3</t>
+    <t>Отделение Банка России по Белгородской области</t>
+  </si>
+  <si>
+    <t>308000, г. Белгород, пр-т Славы, 74</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Брянской области</t>
+  </si>
+  <si>
+    <t>241050, г. Брянск, ул. Горького, 34</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Владимирской области</t>
+  </si>
+  <si>
+    <t>600000, г. Владимир, ул. Большая Московская, 29</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Воронежской области</t>
+  </si>
+  <si>
+    <t>394018, г. Воронеж, ул. Театральная, 36</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ивановской области</t>
+  </si>
+  <si>
+    <t>153000, г. Иваново, ул. Красной Армии, 10/1</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Калужской области</t>
+  </si>
+  <si>
+    <t>248001, г. Калуга, ул. Ленина, 76</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Костромской области</t>
+  </si>
+  <si>
+    <t>156000, г. Кострома, ул. Князева, 5/2</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Курской области</t>
+  </si>
+  <si>
+    <t>305004, Российская Федерация, Курская область, городской округ город Курск, Курск город, Ленина улица, здание 83</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Липецкой области</t>
+  </si>
+  <si>
+    <t>398000, г. Липецк, пл. Им. Г.В. Плеханова, д.4</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Орловской области</t>
+  </si>
+  <si>
+    <t>302001, г. Орел, ул. Гостиная, 6</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Рязанской области</t>
+  </si>
+  <si>
+    <t>390000, г. Рязань, ул. Соборная, 20</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Смоленской области</t>
+  </si>
+  <si>
+    <t>214000, г. Смоленск, ул. Б. Советская, 41/18</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Тамбовской области</t>
+  </si>
+  <si>
+    <t>392000, г. Тамбов, ул. Октябрьская, 7</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Тверской области</t>
+  </si>
+  <si>
+    <t>170100, г.Тверь, ул. Советская, 13</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Тульской области</t>
+  </si>
+  <si>
+    <t>300041, г. Тула, ул. Советская, 88</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ярославской области</t>
+  </si>
+  <si>
+    <t>150000, Российская Федерация, Ярославcкая область, городской округ город Ярославль, город Ярославль, улица Комсомольская здание 7</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Кировской области</t>
+  </si>
+  <si>
+    <t>610000, г. Киров, ул. Спасская, 27</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Пензенской области</t>
+  </si>
+  <si>
+    <t>440000, г. Пенза, ул. Кирова, 62</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Самарской области</t>
+  </si>
+  <si>
+    <t>443099, г. Самара, ул. Куйбышева, 112</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Саратовской области</t>
+  </si>
+  <si>
+    <t>410029, г. Саратов, ул. Советская, 2</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ульяновской области</t>
+  </si>
+  <si>
+    <t>432017, Российская Федерация, Ульяновская обл., Городской округ город Ульяновск, г. Ульяновск, ул. Красноармейская, зд. 2</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Марий Эл</t>
+  </si>
+  <si>
+    <t>424000, г. Йошкар-Ола, ул. Палантая, 67</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Мордовия</t>
+  </si>
+  <si>
+    <t>430005, г. Саранск, ул. Коммунистическая, 32Б</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Татарстан</t>
+  </si>
+  <si>
+    <t>420013, г. Казань, ул. Баумана, 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России — Национальный банк по Удмуртской Республике </t>
+  </si>
+  <si>
+    <t>426008, г. Ижевск, ул. Красноармейская, 159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России — Национальный банк по Чувашской Республике </t>
+  </si>
+  <si>
+    <t>428032, г. Чебоксары, ул. К. Маркса, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России по Чукотскому автономному округу </t>
+  </si>
+  <si>
+    <t>689000, Чукотский автономный округу, г. Анадырь, ул. Дежнева, 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России по Еврейской автономной области </t>
+  </si>
+  <si>
+    <t>679016, г. Биробиджан, пр-т 60-летия образования СССР, 5</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Амурской области</t>
+  </si>
+  <si>
+    <t>675000, г. Благовещенск, пер. Святителя Иннокентия, 17</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Магаданской области</t>
+  </si>
+  <si>
+    <t>685000, г. Магадан, ул. Пушкина, 4</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Камчатскому краю</t>
+  </si>
+  <si>
+    <t>683000, г. Петропавловск-Камчатский, пр-т Карла Маркса, 29/2</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Хабаровскому краю</t>
+  </si>
+  <si>
+    <t>680000, г. Хабаровск, ул. Муравьева-Амурского, 42</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Сахалинской области</t>
+  </si>
+  <si>
+    <t>693020, г. Южно-Сахалинск, Коммунистический пр-т, 47</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Саха (Якутия)</t>
+  </si>
+  <si>
+    <t>677027, г. Якутск, ул. Кирова, 17</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Курганской области</t>
+  </si>
+  <si>
+    <t>640002, Российская Федерация, Курганская область, городской округ город Курган, город Курган, улица Климова, строение 58</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Оренбургской области</t>
+  </si>
+  <si>
+    <t>460000, Российская Федерация, Оренбургская область, город Оренбург городской округ, город Оренбург, улица Ленинская, здание № 28</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Пермскому краю</t>
+  </si>
+  <si>
+    <t>614990, г. Пермь, ул. Ленина, 19</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Тюменской области</t>
+  </si>
+  <si>
+    <t>625000, г. Тюмень, ул. Володарского, 48</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Челябинской области</t>
+  </si>
+  <si>
+    <t>454091, Российская Федерация, Челябинская область, городской округ Челябинский, внутригородской район Центральный, город Челябинск, проспект Ленина, 58</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Башкортостан</t>
+  </si>
+  <si>
+    <t>450008, г. Уфа, ул. Театральная, 3</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Архангельской области</t>
+  </si>
+  <si>
+    <t>163000, г. Архангельск, ул. К. Либкнехта, 3</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Вологодской области</t>
+  </si>
+  <si>
+    <t>160000, г. Вологда, ул. Предтеченская, 5</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Калининградской области</t>
+  </si>
+  <si>
+    <t>236022, г. Калининград, ул. Шиллера, 2</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ленинградской области</t>
+  </si>
+  <si>
+    <t>195273, Санкт-Петербург, Шафировский пр-т, д. 4</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Мурманской области</t>
+  </si>
+  <si>
+    <t>183038, г. Мурманск, ул. Профсоюзов, 11</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Новгородской области</t>
+  </si>
+  <si>
+    <t>173000, г. Великий Новгород, ул. Славная, 33</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Псковской области</t>
+  </si>
+  <si>
+    <t>180000, г. Псков, Октябрьский пр-т, 8,10</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Карелия</t>
+  </si>
+  <si>
+    <t>185910, г. Петрозаводск, ул. Германа Титова, 10</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Коми</t>
+  </si>
+  <si>
+    <t>167000, Российская Федерация, Республика Коми, городской округ Сыктывкар, г. Сыктывкар, ул. Ленина, 53</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Алтайскому краю</t>
+  </si>
+  <si>
+    <t>656056, г. Барнаул, ул. Максима Горького, 30</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Иркутской области</t>
+  </si>
+  <si>
+    <t>664025, г. Иркутск, ул. Ленина, 16</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Кемеровской области</t>
+  </si>
+  <si>
+    <t>650000, г. Кемерово, ул. Кирова, 12</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Красноярскому краю</t>
+  </si>
+  <si>
+    <t>660049, г.о. г. Красноярск, г. Красноярск, ул. Дубровинского, зд. 70</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Омской области</t>
+  </si>
+  <si>
+    <t>644099, г. Омск, ул. Певцова, 11</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Томской области</t>
+  </si>
+  <si>
+    <t>634041, г. Томск, пр-т Комсомольский, 68</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Забайкальскому краю</t>
+  </si>
+  <si>
+    <t>672000, г. Чита, ул. Анохина, 74</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Алтай</t>
+  </si>
+  <si>
+    <t>649000, г. Горно-Алтайск, ул. Чорос-Гуркина, 21</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Бурятия</t>
+  </si>
+  <si>
+    <t>670042, г. Улан-Удэ, пр-т Строителей, д. 7</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Тыва</t>
+  </si>
+  <si>
+    <t>667000, г. Кызыл, ул. Ленина, 23</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Хакасия</t>
+  </si>
+  <si>
+    <t>655017, г. Абакан, ул. Советская, 26</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Астраханской области</t>
+  </si>
+  <si>
+    <t>414000, г. Астрахань, ул. Никольская, 3</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Волгоградской области</t>
+  </si>
+  <si>
+    <t>400066, г. Волгоград, пр-т им. В.И. Ленина, 18</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Республике Крым</t>
+  </si>
+  <si>
+    <t>295011, Республика Крым, г. Симферополь, ул. Сергеева-Ценского, 12/4</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ростовской области</t>
+  </si>
+  <si>
+    <t>344006, г. Ростов-на-Дону, пр-т Соколова, 22-а</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по г. Севастополь</t>
+  </si>
+  <si>
+    <t>299001, г. Севастополь, ул. Михаила Дзигунского, 1/3</t>
+  </si>
+  <si>
+    <t>Отделение Банка России по Ставропольскому краю</t>
+  </si>
+  <si>
+    <t>355035, г. Ставрополь, ул. Ленина, 286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России — Национальный банк по Кабардино-Балкарской Республике </t>
+  </si>
+  <si>
+    <t>360000, г. Нальчик, ул. Головко, 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России — Национальный банк по Карачаево-Черкесской Республике </t>
+  </si>
+  <si>
+    <t>369000, г. Черкесск, ул. Пушкинская, 84</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Адыгея</t>
+  </si>
+  <si>
+    <t>385000, г. Майкоп, ул. Ленина, 61</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Дагестан</t>
+  </si>
+  <si>
+    <t>367000, г. Махачкала, ул. Буйнакского, 1</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Ингушетия</t>
+  </si>
+  <si>
+    <t>386001, г. Магас, ул. А. Горчханова,1</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Калмыкия</t>
+  </si>
+  <si>
+    <t>358000, г. Элиста, ул. Нейман, 3</t>
+  </si>
+  <si>
+    <t>Отделение Банка России — Национальный банк по Республике Северная Осетия-Алания</t>
+  </si>
+  <si>
+    <t>362040, г. Владикавказ, ул. Куйбышева, 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Отделение Банка России — Национальный банк по Чеченской Республике </t>
+  </si>
+  <si>
+    <t>364020, г. Грозный, Старопромысловское шоссе, 5</t>
   </si>
 </sst>
 </file>
@@ -401,7 +839,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -413,13 +851,7 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="9"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
+      <sz val="20"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -433,18 +865,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="13"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -454,28 +886,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -484,16 +901,76 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,7 +980,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -511,25 +988,34 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -548,11 +1034,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff2b2d33"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="fff9f9f9"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1611,7 +2096,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="A2" xSplit="0" ySplit="1" activePane="bottomLeft" state="frozen"/>
@@ -1625,696 +2110,1499 @@
     <col min="4" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.55" customHeight="1">
+    <row r="1" ht="47.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
       <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" ht="42.55" customHeight="1">
-      <c r="A2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s" s="4">
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="38.2" customHeight="1">
+      <c r="A2" t="s" s="3">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="C2" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="42.35" customHeight="1">
-      <c r="A3" t="s" s="6">
+      <c r="C2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="38" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" ht="42.35" customHeight="1">
-      <c r="A4" t="s" s="6">
+      <c r="C3" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" ht="38" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="B4" t="s" s="6">
+      <c r="B4" t="s" s="5">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" ht="42.35" customHeight="1">
-      <c r="A5" t="s" s="6">
+      <c r="C4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" ht="38" customHeight="1">
+      <c r="A5" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B5" t="s" s="6">
+      <c r="B5" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" ht="42.35" customHeight="1">
-      <c r="A6" t="s" s="6">
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="38" customHeight="1">
+      <c r="A6" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="B6" t="s" s="6">
+      <c r="B6" t="s" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" ht="42.35" customHeight="1">
-      <c r="A7" t="s" s="6">
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" ht="38" customHeight="1">
+      <c r="A7" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="B7" t="s" s="6">
+      <c r="B7" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="60.35" customHeight="1">
-      <c r="A8" t="s" s="6">
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="38" customHeight="1">
+      <c r="A8" t="s" s="5">
         <v>15</v>
       </c>
-      <c r="B8" t="s" s="6">
+      <c r="B8" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="60.35" customHeight="1">
-      <c r="A9" t="s" s="6">
+    <row r="9" ht="52" customHeight="1">
+      <c r="A9" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="B9" t="s" s="6">
+      <c r="B9" t="s" s="5">
         <v>18</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="78.35" customHeight="1">
-      <c r="A10" t="s" s="6">
+    <row r="10" ht="52" customHeight="1">
+      <c r="A10" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B10" t="s" s="6">
+      <c r="B10" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" ht="78.35" customHeight="1">
-      <c r="A11" t="s" s="6">
+      <c r="C10" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" ht="52" customHeight="1">
+      <c r="A11" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="B11" t="s" s="6">
+      <c r="B11" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="C11" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" ht="42.35" customHeight="1">
-      <c r="A12" t="s" s="6">
+      <c r="C11" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="38" customHeight="1">
+      <c r="A12" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="B12" t="s" s="6">
+      <c r="B12" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="C12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" ht="42.35" customHeight="1">
-      <c r="A13" t="s" s="6">
+      <c r="C12" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="38" customHeight="1">
+      <c r="A13" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="B13" t="s" s="6">
+      <c r="B13" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="C13" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="42.35" customHeight="1">
-      <c r="A14" t="s" s="6">
+      <c r="C13" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="38" customHeight="1">
+      <c r="A14" t="s" s="5">
         <v>27</v>
       </c>
-      <c r="B14" t="s" s="6">
+      <c r="B14" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="C14" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="60.35" customHeight="1">
-      <c r="A15" t="s" s="6">
+      <c r="C14" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" ht="38" customHeight="1">
+      <c r="A15" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="B15" t="s" s="6">
+      <c r="B15" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="42.35" customHeight="1">
-      <c r="A16" t="s" s="6">
+    <row r="16" ht="38" customHeight="1">
+      <c r="A16" t="s" s="5">
         <v>31</v>
       </c>
-      <c r="B16" t="s" s="6">
+      <c r="B16" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="C16" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="42.35" customHeight="1">
-      <c r="A17" t="s" s="6">
+      <c r="C16" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="38" customHeight="1">
+      <c r="A17" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="B17" t="s" s="6">
+      <c r="B17" t="s" s="5">
         <v>34</v>
       </c>
-      <c r="C17" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" ht="42.35" customHeight="1">
-      <c r="A18" t="s" s="6">
+      <c r="C17" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="38" customHeight="1">
+      <c r="A18" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B18" t="s" s="6">
+      <c r="B18" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="C18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="42.35" customHeight="1">
-      <c r="A19" t="s" s="6">
+      <c r="C18" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" ht="38" customHeight="1">
+      <c r="A19" t="s" s="5">
         <v>37</v>
       </c>
-      <c r="B19" t="s" s="6">
+      <c r="B19" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" ht="60.35" customHeight="1">
-      <c r="A20" t="s" s="6">
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="52" customHeight="1">
+      <c r="A20" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="B20" t="s" s="6">
+      <c r="B20" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="42.35" customHeight="1">
-      <c r="A21" t="s" s="6">
+    <row r="21" ht="38" customHeight="1">
+      <c r="A21" t="s" s="5">
         <v>41</v>
       </c>
-      <c r="B21" t="s" s="6">
+      <c r="B21" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="C21" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" ht="42.35" customHeight="1">
-      <c r="A22" t="s" s="6">
+      <c r="C21" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="38" customHeight="1">
+      <c r="A22" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="B22" t="s" s="6">
+      <c r="B22" t="s" s="5">
         <v>44</v>
       </c>
-      <c r="C22" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="60.35" customHeight="1">
-      <c r="A23" t="s" s="6">
+      <c r="C22" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" ht="52" customHeight="1">
+      <c r="A23" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="B23" t="s" s="6">
+      <c r="B23" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="42.35" customHeight="1">
-      <c r="A24" t="s" s="6">
+    <row r="24" ht="38" customHeight="1">
+      <c r="A24" t="s" s="5">
         <v>47</v>
       </c>
-      <c r="B24" t="s" s="6">
+      <c r="B24" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="C24" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" ht="60.35" customHeight="1">
-      <c r="A25" t="s" s="6">
+      <c r="C24" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="38" customHeight="1">
+      <c r="A25" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="B25" t="s" s="6">
+      <c r="B25" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="C25" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="42.35" customHeight="1">
-      <c r="A26" t="s" s="6">
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="38" customHeight="1">
+      <c r="A26" t="s" s="5">
         <v>51</v>
       </c>
-      <c r="B26" t="s" s="6">
+      <c r="B26" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="C26" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" ht="60.35" customHeight="1">
-      <c r="A27" t="s" s="6">
+      <c r="C26" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="52" customHeight="1">
+      <c r="A27" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="B27" t="s" s="6">
+      <c r="B27" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="42.35" customHeight="1">
-      <c r="A28" t="s" s="6">
+    <row r="28" ht="38" customHeight="1">
+      <c r="A28" t="s" s="5">
         <v>55</v>
       </c>
-      <c r="B28" t="s" s="6">
+      <c r="B28" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="C28" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" ht="42.35" customHeight="1">
-      <c r="A29" t="s" s="6">
+      <c r="C28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="38" customHeight="1">
+      <c r="A29" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="B29" t="s" s="6">
+      <c r="B29" t="s" s="5">
         <v>58</v>
       </c>
-      <c r="C29" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" ht="42.35" customHeight="1">
-      <c r="A30" t="s" s="6">
+      <c r="C29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="38" customHeight="1">
+      <c r="A30" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="B30" t="s" s="6">
+      <c r="B30" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="C30" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" ht="42.35" customHeight="1">
-      <c r="A31" t="s" s="6">
+      <c r="C30" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="38" customHeight="1">
+      <c r="A31" t="s" s="5">
         <v>61</v>
       </c>
-      <c r="B31" t="s" s="6">
+      <c r="B31" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="C31" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" ht="42.35" customHeight="1">
-      <c r="A32" t="s" s="6">
+      <c r="C31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" ht="38" customHeight="1">
+      <c r="A32" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="B32" t="s" s="6">
+      <c r="B32" t="s" s="5">
         <v>64</v>
       </c>
-      <c r="C32" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" ht="42.35" customHeight="1">
-      <c r="A33" t="s" s="6">
+      <c r="C32" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" ht="38" customHeight="1">
+      <c r="A33" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="B33" t="s" s="6">
+      <c r="B33" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="C33" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" ht="42.35" customHeight="1">
-      <c r="A34" t="s" s="6">
+      <c r="C33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="38" customHeight="1">
+      <c r="A34" t="s" s="5">
         <v>67</v>
       </c>
-      <c r="B34" t="s" s="6">
+      <c r="B34" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="C34" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" ht="42.35" customHeight="1">
-      <c r="A35" t="s" s="6">
+      <c r="C34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="38" customHeight="1">
+      <c r="A35" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="B35" t="s" s="6">
+      <c r="B35" t="s" s="5">
         <v>70</v>
       </c>
-      <c r="C35" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" ht="42.35" customHeight="1">
-      <c r="A36" t="s" s="6">
+      <c r="C35" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" ht="38" customHeight="1">
+      <c r="A36" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="B36" t="s" s="6">
+      <c r="B36" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="C36" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" ht="42.35" customHeight="1">
-      <c r="A37" t="s" s="6">
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" ht="38" customHeight="1">
+      <c r="A37" t="s" s="5">
         <v>73</v>
       </c>
-      <c r="B37" t="s" s="6">
+      <c r="B37" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="C37" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" ht="42.35" customHeight="1">
-      <c r="A38" t="s" s="6">
+      <c r="C37" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" ht="38" customHeight="1">
+      <c r="A38" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="B38" t="s" s="6">
+      <c r="B38" t="s" s="5">
         <v>76</v>
       </c>
-      <c r="C38" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" ht="42.35" customHeight="1">
-      <c r="A39" t="s" s="6">
+      <c r="C38" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" ht="38" customHeight="1">
+      <c r="A39" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="B39" t="s" s="6">
+      <c r="B39" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="C39" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" ht="42.35" customHeight="1">
-      <c r="A40" t="s" s="6">
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" ht="38" customHeight="1">
+      <c r="A40" t="s" s="5">
         <v>79</v>
       </c>
-      <c r="B40" t="s" s="6">
+      <c r="B40" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="C40" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" ht="42.35" customHeight="1">
-      <c r="A41" t="s" s="6">
+      <c r="C40" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" ht="38" customHeight="1">
+      <c r="A41" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="C41" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" ht="42.35" customHeight="1">
-      <c r="A42" t="s" s="6">
+      <c r="C41" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" ht="38" customHeight="1">
+      <c r="A42" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="B42" t="s" s="6">
+      <c r="B42" t="s" s="5">
         <v>84</v>
       </c>
-      <c r="C42" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" ht="42.35" customHeight="1">
-      <c r="A43" t="s" s="6">
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" ht="38" customHeight="1">
+      <c r="A43" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="B43" t="s" s="6">
+      <c r="B43" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="C43" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" ht="42.35" customHeight="1">
-      <c r="A44" t="s" s="6">
+      <c r="C43" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" ht="38" customHeight="1">
+      <c r="A44" t="s" s="5">
         <v>87</v>
       </c>
-      <c r="B44" t="s" s="6">
+      <c r="B44" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="C44" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" ht="60.35" customHeight="1">
-      <c r="A45" t="s" s="6">
+      <c r="C44" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" ht="52" customHeight="1">
+      <c r="A45" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="B45" t="s" s="6">
+      <c r="B45" t="s" s="5">
         <v>90</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="46" ht="42.35" customHeight="1">
-      <c r="A46" t="s" s="6">
+    <row r="46" ht="38" customHeight="1">
+      <c r="A46" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="B46" t="s" s="6">
+      <c r="B46" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="C46" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" ht="42.35" customHeight="1">
-      <c r="A47" t="s" s="6">
+      <c r="C46" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" ht="38" customHeight="1">
+      <c r="A47" t="s" s="5">
         <v>93</v>
       </c>
-      <c r="B47" t="s" s="6">
+      <c r="B47" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="C47" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" ht="42.35" customHeight="1">
-      <c r="A48" t="s" s="6">
+      <c r="C47" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" ht="38" customHeight="1">
+      <c r="A48" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="B48" t="s" s="6">
+      <c r="B48" t="s" s="5">
         <v>96</v>
       </c>
-      <c r="C48" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" ht="60.35" customHeight="1">
-      <c r="A49" t="s" s="6">
+      <c r="C48" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" ht="38" customHeight="1">
+      <c r="A49" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="B49" t="s" s="6">
+      <c r="B49" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="C49" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" ht="42.35" customHeight="1">
-      <c r="A50" t="s" s="6">
+      <c r="C49" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" ht="38" customHeight="1">
+      <c r="A50" t="s" s="5">
         <v>99</v>
       </c>
-      <c r="B50" t="s" s="6">
+      <c r="B50" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="C50" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" ht="42.35" customHeight="1">
-      <c r="A51" t="s" s="6">
+      <c r="C50" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" ht="38" customHeight="1">
+      <c r="A51" t="s" s="5">
         <v>101</v>
       </c>
-      <c r="B51" t="s" s="6">
+      <c r="B51" t="s" s="5">
         <v>102</v>
       </c>
-      <c r="C51" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" ht="60.35" customHeight="1">
-      <c r="A52" t="s" s="6">
+      <c r="C51" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" ht="38" customHeight="1">
+      <c r="A52" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="B52" t="s" s="6">
+      <c r="B52" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="C52" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" ht="42.35" customHeight="1">
-      <c r="A53" t="s" s="6">
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" ht="38" customHeight="1">
+      <c r="A53" t="s" s="5">
         <v>105</v>
       </c>
-      <c r="B53" t="s" s="6">
+      <c r="B53" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="C53" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" ht="42.35" customHeight="1">
-      <c r="A54" t="s" s="6">
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" ht="38" customHeight="1">
+      <c r="A54" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="B54" t="s" s="6">
+      <c r="B54" t="s" s="5">
         <v>108</v>
       </c>
-      <c r="C54" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" ht="42.35" customHeight="1">
-      <c r="A55" t="s" s="6">
+      <c r="C54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" ht="38" customHeight="1">
+      <c r="A55" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="B55" t="s" s="6">
+      <c r="B55" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="C55" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" ht="60.35" customHeight="1">
-      <c r="A56" t="s" s="6">
+      <c r="C55" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" ht="38" customHeight="1">
+      <c r="A56" t="s" s="5">
         <v>111</v>
       </c>
-      <c r="B56" t="s" s="6">
+      <c r="B56" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="C56" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" ht="60.35" customHeight="1">
-      <c r="A57" t="s" s="6">
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" ht="52" customHeight="1">
+      <c r="A57" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="B57" t="s" s="6">
+      <c r="B57" t="s" s="5">
         <v>114</v>
       </c>
-      <c r="C57" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" ht="60.35" customHeight="1">
-      <c r="A58" t="s" s="6">
+      <c r="C57" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" ht="38" customHeight="1">
+      <c r="A58" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="B58" t="s" s="6">
+      <c r="B58" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="C58" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" ht="42.35" customHeight="1">
-      <c r="A59" t="s" s="6">
+      <c r="C58" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" ht="38" customHeight="1">
+      <c r="A59" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" t="s" s="5">
         <v>118</v>
       </c>
-      <c r="C59" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" ht="42.35" customHeight="1">
-      <c r="A60" t="s" s="6">
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" ht="38" customHeight="1">
+      <c r="A60" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="B60" t="s" s="6">
+      <c r="B60" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="C60" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" ht="42.35" customHeight="1">
-      <c r="A61" t="s" s="6">
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" ht="38" customHeight="1">
+      <c r="A61" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="B61" t="s" s="6">
+      <c r="B61" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="C61" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" ht="42.35" customHeight="1">
-      <c r="A62" t="s" s="8">
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" ht="38.3" customHeight="1">
+      <c r="A62" t="s" s="7">
         <v>123</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" t="s" s="7">
         <v>124</v>
       </c>
-      <c r="C62" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" ht="78.35" customHeight="1">
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" ht="30.65" customHeight="1">
       <c r="A63" t="s" s="8">
         <v>125</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" t="s" s="9">
         <v>126</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" ht="30.65" customHeight="1">
+      <c r="A64" t="s" s="8">
+        <v>127</v>
+      </c>
+      <c r="B64" t="s" s="9">
+        <v>128</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" ht="30.65" customHeight="1">
+      <c r="A65" t="s" s="8">
+        <v>129</v>
+      </c>
+      <c r="B65" t="s" s="9">
+        <v>130</v>
+      </c>
+      <c r="C65" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" ht="30.65" customHeight="1">
+      <c r="A66" t="s" s="8">
+        <v>131</v>
+      </c>
+      <c r="B66" t="s" s="9">
+        <v>132</v>
+      </c>
+      <c r="C66" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" ht="30.65" customHeight="1">
+      <c r="A67" t="s" s="8">
+        <v>133</v>
+      </c>
+      <c r="B67" t="s" s="9">
+        <v>134</v>
+      </c>
+      <c r="C67" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" ht="30.65" customHeight="1">
+      <c r="A68" t="s" s="8">
+        <v>135</v>
+      </c>
+      <c r="B68" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="C68" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" ht="30.65" customHeight="1">
+      <c r="A69" t="s" s="8">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s" s="9">
+        <v>138</v>
+      </c>
+      <c r="C69" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" ht="36.65" customHeight="1">
+      <c r="A70" t="s" s="8">
+        <v>139</v>
+      </c>
+      <c r="B70" t="s" s="9">
+        <v>140</v>
+      </c>
+      <c r="C70" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" ht="30.65" customHeight="1">
+      <c r="A71" t="s" s="8">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s" s="9">
+        <v>142</v>
+      </c>
+      <c r="C71" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" ht="30.65" customHeight="1">
+      <c r="A72" t="s" s="8">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s" s="9">
+        <v>144</v>
+      </c>
+      <c r="C72" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" ht="30.65" customHeight="1">
+      <c r="A73" t="s" s="8">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s" s="9">
+        <v>146</v>
+      </c>
+      <c r="C73" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" ht="30.65" customHeight="1">
+      <c r="A74" t="s" s="8">
+        <v>147</v>
+      </c>
+      <c r="B74" t="s" s="9">
+        <v>148</v>
+      </c>
+      <c r="C74" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" ht="30.65" customHeight="1">
+      <c r="A75" t="s" s="8">
+        <v>149</v>
+      </c>
+      <c r="B75" t="s" s="9">
+        <v>150</v>
+      </c>
+      <c r="C75" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" ht="30.65" customHeight="1">
+      <c r="A76" t="s" s="8">
+        <v>151</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>152</v>
+      </c>
+      <c r="C76" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" ht="30.65" customHeight="1">
+      <c r="A77" t="s" s="8">
+        <v>153</v>
+      </c>
+      <c r="B77" t="s" s="9">
+        <v>154</v>
+      </c>
+      <c r="C77" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" ht="50.65" customHeight="1">
+      <c r="A78" t="s" s="8">
+        <v>155</v>
+      </c>
+      <c r="B78" t="s" s="9">
+        <v>156</v>
+      </c>
+      <c r="C78" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" ht="30.65" customHeight="1">
+      <c r="A79" t="s" s="8">
+        <v>157</v>
+      </c>
+      <c r="B79" t="s" s="9">
+        <v>158</v>
+      </c>
+      <c r="C79" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" ht="30.65" customHeight="1">
+      <c r="A80" t="s" s="8">
+        <v>159</v>
+      </c>
+      <c r="B80" t="s" s="9">
+        <v>160</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" ht="30.65" customHeight="1">
+      <c r="A81" t="s" s="8">
+        <v>161</v>
+      </c>
+      <c r="B81" t="s" s="9">
+        <v>162</v>
+      </c>
+      <c r="C81" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" ht="30.65" customHeight="1">
+      <c r="A82" t="s" s="8">
+        <v>163</v>
+      </c>
+      <c r="B82" t="s" s="9">
+        <v>164</v>
+      </c>
+      <c r="C82" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" ht="36.65" customHeight="1">
+      <c r="A83" t="s" s="8">
+        <v>165</v>
+      </c>
+      <c r="B83" t="s" s="9">
+        <v>166</v>
+      </c>
+      <c r="C83" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" ht="44.65" customHeight="1">
+      <c r="A84" t="s" s="8">
+        <v>167</v>
+      </c>
+      <c r="B84" t="s" s="9">
+        <v>168</v>
+      </c>
+      <c r="C84" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" ht="44.65" customHeight="1">
+      <c r="A85" t="s" s="8">
+        <v>169</v>
+      </c>
+      <c r="B85" t="s" s="9">
+        <v>170</v>
+      </c>
+      <c r="C85" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" ht="44.65" customHeight="1">
+      <c r="A86" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="B86" t="s" s="9">
+        <v>172</v>
+      </c>
+      <c r="C86" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" ht="44.65" customHeight="1">
+      <c r="A87" t="s" s="8">
+        <v>173</v>
+      </c>
+      <c r="B87" t="s" s="9">
+        <v>174</v>
+      </c>
+      <c r="C87" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" ht="44.65" customHeight="1">
+      <c r="A88" t="s" s="8">
+        <v>175</v>
+      </c>
+      <c r="B88" t="s" s="9">
+        <v>176</v>
+      </c>
+      <c r="C88" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" ht="44.65" customHeight="1">
+      <c r="A89" t="s" s="8">
+        <v>177</v>
+      </c>
+      <c r="B89" t="s" s="9">
+        <v>178</v>
+      </c>
+      <c r="C89" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" ht="44.65" customHeight="1">
+      <c r="A90" t="s" s="8">
+        <v>179</v>
+      </c>
+      <c r="B90" t="s" s="9">
+        <v>180</v>
+      </c>
+      <c r="C90" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" ht="30.65" customHeight="1">
+      <c r="A91" t="s" s="8">
+        <v>181</v>
+      </c>
+      <c r="B91" t="s" s="9">
+        <v>182</v>
+      </c>
+      <c r="C91" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" ht="30.65" customHeight="1">
+      <c r="A92" t="s" s="8">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s" s="9">
+        <v>184</v>
+      </c>
+      <c r="C92" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" ht="30.65" customHeight="1">
+      <c r="A93" t="s" s="8">
+        <v>185</v>
+      </c>
+      <c r="B93" t="s" s="9">
+        <v>186</v>
+      </c>
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" ht="30.65" customHeight="1">
+      <c r="A94" t="s" s="8">
+        <v>187</v>
+      </c>
+      <c r="B94" t="s" s="9">
+        <v>188</v>
+      </c>
+      <c r="C94" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" ht="30.65" customHeight="1">
+      <c r="A95" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="B95" t="s" s="9">
+        <v>190</v>
+      </c>
+      <c r="C95" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" ht="44.65" customHeight="1">
+      <c r="A96" t="s" s="8">
+        <v>191</v>
+      </c>
+      <c r="B96" t="s" s="9">
+        <v>192</v>
+      </c>
+      <c r="C96" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" ht="36.65" customHeight="1">
+      <c r="A97" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="B97" t="s" s="9">
+        <v>194</v>
+      </c>
+      <c r="C97" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" ht="50.65" customHeight="1">
+      <c r="A98" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="B98" t="s" s="9">
+        <v>196</v>
+      </c>
+      <c r="C98" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" ht="30.65" customHeight="1">
+      <c r="A99" t="s" s="8">
+        <v>197</v>
+      </c>
+      <c r="B99" t="s" s="9">
+        <v>198</v>
+      </c>
+      <c r="C99" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" ht="30.65" customHeight="1">
+      <c r="A100" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="B100" t="s" s="9">
+        <v>200</v>
+      </c>
+      <c r="C100" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" ht="50.65" customHeight="1">
+      <c r="A101" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s" s="9">
+        <v>202</v>
+      </c>
+      <c r="C101" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" ht="44.65" customHeight="1">
+      <c r="A102" t="s" s="8">
+        <v>203</v>
+      </c>
+      <c r="B102" t="s" s="9">
+        <v>204</v>
+      </c>
+      <c r="C102" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" ht="30.65" customHeight="1">
+      <c r="A103" t="s" s="8">
+        <v>205</v>
+      </c>
+      <c r="B103" t="s" s="9">
+        <v>206</v>
+      </c>
+      <c r="C103" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" ht="30.65" customHeight="1">
+      <c r="A104" t="s" s="8">
+        <v>207</v>
+      </c>
+      <c r="B104" t="s" s="9">
+        <v>208</v>
+      </c>
+      <c r="C104" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" ht="30.65" customHeight="1">
+      <c r="A105" t="s" s="8">
+        <v>209</v>
+      </c>
+      <c r="B105" t="s" s="9">
+        <v>210</v>
+      </c>
+      <c r="C105" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" ht="30.65" customHeight="1">
+      <c r="A106" t="s" s="8">
+        <v>211</v>
+      </c>
+      <c r="B106" t="s" s="9">
+        <v>212</v>
+      </c>
+      <c r="C106" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" ht="30.65" customHeight="1">
+      <c r="A107" t="s" s="8">
+        <v>213</v>
+      </c>
+      <c r="B107" t="s" s="11">
+        <v>214</v>
+      </c>
+      <c r="C107" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" ht="30.65" customHeight="1">
+      <c r="A108" t="s" s="8">
+        <v>215</v>
+      </c>
+      <c r="B108" t="s" s="11">
+        <v>216</v>
+      </c>
+      <c r="C108" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" ht="30.65" customHeight="1">
+      <c r="A109" t="s" s="8">
+        <v>217</v>
+      </c>
+      <c r="B109" t="s" s="11">
+        <v>218</v>
+      </c>
+      <c r="C109" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" ht="44.65" customHeight="1">
+      <c r="A110" t="s" s="8">
+        <v>219</v>
+      </c>
+      <c r="B110" t="s" s="9">
+        <v>220</v>
+      </c>
+      <c r="C110" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" ht="44.65" customHeight="1">
+      <c r="A111" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="B111" t="s" s="9">
+        <v>222</v>
+      </c>
+      <c r="C111" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" ht="30.65" customHeight="1">
+      <c r="A112" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="B112" t="s" s="9">
+        <v>224</v>
+      </c>
+      <c r="C112" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" ht="30.65" customHeight="1">
+      <c r="A113" t="s" s="8">
+        <v>225</v>
+      </c>
+      <c r="B113" t="s" s="9">
+        <v>226</v>
+      </c>
+      <c r="C113" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" ht="30.65" customHeight="1">
+      <c r="A114" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="B114" t="s" s="9">
+        <v>228</v>
+      </c>
+      <c r="C114" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" ht="30.65" customHeight="1">
+      <c r="A115" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="B115" t="s" s="9">
+        <v>230</v>
+      </c>
+      <c r="C115" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" ht="30.65" customHeight="1">
+      <c r="A116" t="s" s="8">
+        <v>231</v>
+      </c>
+      <c r="B116" t="s" s="9">
+        <v>232</v>
+      </c>
+      <c r="C116" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" ht="30.65" customHeight="1">
+      <c r="A117" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="B117" t="s" s="9">
+        <v>234</v>
+      </c>
+      <c r="C117" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" ht="30.65" customHeight="1">
+      <c r="A118" t="s" s="8">
+        <v>235</v>
+      </c>
+      <c r="B118" t="s" s="9">
+        <v>236</v>
+      </c>
+      <c r="C118" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" ht="44.65" customHeight="1">
+      <c r="A119" t="s" s="8">
+        <v>237</v>
+      </c>
+      <c r="B119" t="s" s="9">
+        <v>238</v>
+      </c>
+      <c r="C119" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" ht="44.65" customHeight="1">
+      <c r="A120" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="B120" t="s" s="9">
+        <v>240</v>
+      </c>
+      <c r="C120" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" ht="44.65" customHeight="1">
+      <c r="A121" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="B121" t="s" s="9">
+        <v>242</v>
+      </c>
+      <c r="C121" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" ht="44.65" customHeight="1">
+      <c r="A122" t="s" s="8">
+        <v>243</v>
+      </c>
+      <c r="B122" t="s" s="9">
+        <v>244</v>
+      </c>
+      <c r="C122" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" ht="30.65" customHeight="1">
+      <c r="A123" t="s" s="8">
+        <v>245</v>
+      </c>
+      <c r="B123" t="s" s="9">
+        <v>246</v>
+      </c>
+      <c r="C123" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" ht="30.65" customHeight="1">
+      <c r="A124" t="s" s="8">
+        <v>247</v>
+      </c>
+      <c r="B124" t="s" s="9">
+        <v>248</v>
+      </c>
+      <c r="C124" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" ht="36.65" customHeight="1">
+      <c r="A125" t="s" s="8">
+        <v>249</v>
+      </c>
+      <c r="B125" t="s" s="9">
+        <v>250</v>
+      </c>
+      <c r="C125" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" ht="30.65" customHeight="1">
+      <c r="A126" t="s" s="8">
+        <v>251</v>
+      </c>
+      <c r="B126" t="s" s="9">
+        <v>252</v>
+      </c>
+      <c r="C126" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" ht="30.65" customHeight="1">
+      <c r="A127" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="B127" t="s" s="9">
+        <v>254</v>
+      </c>
+      <c r="C127" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" ht="30.65" customHeight="1">
+      <c r="A128" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="B128" t="s" s="9">
+        <v>256</v>
+      </c>
+      <c r="C128" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" ht="58.65" customHeight="1">
+      <c r="A129" t="s" s="8">
+        <v>257</v>
+      </c>
+      <c r="B129" t="s" s="9">
+        <v>258</v>
+      </c>
+      <c r="C129" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" ht="58.65" customHeight="1">
+      <c r="A130" t="s" s="8">
+        <v>259</v>
+      </c>
+      <c r="B130" t="s" s="9">
+        <v>260</v>
+      </c>
+      <c r="C130" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" ht="44.65" customHeight="1">
+      <c r="A131" t="s" s="8">
+        <v>261</v>
+      </c>
+      <c r="B131" t="s" s="9">
+        <v>262</v>
+      </c>
+      <c r="C131" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" ht="44.65" customHeight="1">
+      <c r="A132" t="s" s="8">
+        <v>263</v>
+      </c>
+      <c r="B132" t="s" s="9">
+        <v>264</v>
+      </c>
+      <c r="C132" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" ht="44.65" customHeight="1">
+      <c r="A133" t="s" s="8">
+        <v>265</v>
+      </c>
+      <c r="B133" t="s" s="9">
+        <v>266</v>
+      </c>
+      <c r="C133" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" ht="44.65" customHeight="1">
+      <c r="A134" t="s" s="8">
+        <v>267</v>
+      </c>
+      <c r="B134" t="s" s="9">
+        <v>268</v>
+      </c>
+      <c r="C134" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" ht="58.65" customHeight="1">
+      <c r="A135" t="s" s="8">
+        <v>269</v>
+      </c>
+      <c r="B135" t="s" s="9">
+        <v>270</v>
+      </c>
+      <c r="C135" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" ht="44.65" customHeight="1">
+      <c r="A136" t="s" s="8">
+        <v>271</v>
+      </c>
+      <c r="B136" t="s" s="9">
+        <v>272</v>
+      </c>
+      <c r="C136" s="10">
         <v>2</v>
       </c>
     </row>
